--- a/myprojpackage.xlsx
+++ b/myprojpackage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Documents\GitHub\Nehaproject0126\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF64093-2E1A-4588-AF83-FB1531FE9BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666EEA0-4A1E-490A-854D-0EA10001DB50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>User should be able to validate the Account is deleted</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -238,13 +238,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
-  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -549,7 +543,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -638,7 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -652,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -689,7 +683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -726,7 +720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -740,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -754,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>25</v>
       </c>
@@ -791,7 +785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>18</v>
       </c>
@@ -802,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>22</v>
       </c>
